--- a/webapp_2024/DataFiles/DataModel.xlsx
+++ b/webapp_2024/DataFiles/DataModel.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I524946/Documents/TMZ_repo/webapp_2024/DataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8D869C-208F-6F47-BCF6-09089AA2165F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CDE1D3-4DB9-BE4A-A903-FDB55B2D2E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{2AA16E34-A2F2-48F9-9EBD-86B0C5028315}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{2AA16E34-A2F2-48F9-9EBD-86B0C5028315}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
     <sheet name="Competitions" sheetId="2" r:id="rId2"/>
+    <sheet name="Gifs" sheetId="3" r:id="rId3"/>
+    <sheet name="Audios" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Team</t>
   </si>
@@ -118,6 +120,45 @@
   </si>
   <si>
     <t>1.FCHeidenheim.png</t>
+  </si>
+  <si>
+    <t>GifName</t>
+  </si>
+  <si>
+    <t>AudioName</t>
+  </si>
+  <si>
+    <t>goal_1</t>
+  </si>
+  <si>
+    <t>goal_2</t>
+  </si>
+  <si>
+    <t>VfB Stuttgart_1</t>
+  </si>
+  <si>
+    <t>FC Schalke_1</t>
+  </si>
+  <si>
+    <t>Automatisch</t>
+  </si>
+  <si>
+    <t>VfB Stuttgart_2</t>
+  </si>
+  <si>
+    <t>VfB Stuttgart_3</t>
+  </si>
+  <si>
+    <t>VfB Stuttgart_4</t>
+  </si>
+  <si>
+    <t>FC Schalke_4</t>
+  </si>
+  <si>
+    <t>FC Schalke_2</t>
+  </si>
+  <si>
+    <t>FC Schalke_3</t>
   </si>
 </sst>
 </file>
@@ -506,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4395D1-998D-4388-83B8-F92122EE307B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -745,4 +786,100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CDC92B-B647-574B-A34E-73D731C9174B}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01F6414-AE8B-BB4B-9DEA-A02911A1B2BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/webapp_2024/DataFiles/DataModel.xlsx
+++ b/webapp_2024/DataFiles/DataModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I524946/Documents/TMZ_repo/webapp_2024/DataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CDE1D3-4DB9-BE4A-A903-FDB55B2D2E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DE091F-7623-A341-BF47-45D23AB97873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{2AA16E34-A2F2-48F9-9EBD-86B0C5028315}"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{2AA16E34-A2F2-48F9-9EBD-86B0C5028315}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Team</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>FC Schalke_3</t>
+  </si>
+  <si>
+    <t>general_goal_music</t>
+  </si>
+  <si>
+    <t>lastminute_1</t>
+  </si>
+  <si>
+    <t>lastminute_2</t>
+  </si>
+  <si>
+    <t>lastminute_3</t>
+  </si>
+  <si>
+    <t>FC Schalke Anthem</t>
+  </si>
+  <si>
+    <t>VfB Stuttgart Anthem</t>
   </si>
 </sst>
 </file>
@@ -792,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CDC92B-B647-574B-A34E-73D731C9174B}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -866,10 +884,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01F6414-AE8B-BB4B-9DEA-A02911A1B2BF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -879,6 +897,46 @@
         <v>28</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/webapp_2024/DataFiles/DataModel.xlsx
+++ b/webapp_2024/DataFiles/DataModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I524946/Documents/TMZ_repo/webapp_2024/DataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DE091F-7623-A341-BF47-45D23AB97873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D51FCC-206A-A246-BB47-9DB5854A5E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{2AA16E34-A2F2-48F9-9EBD-86B0C5028315}"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2AA16E34-A2F2-48F9-9EBD-86B0C5028315}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>NoOfQualifiedTeams</t>
   </si>
   <si>
-    <t>TimerDuration (Same value for whole competition!</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>VfB Stuttgart Anthem</t>
+  </si>
+  <si>
+    <t>TimerDuration</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B8779D3-9586-8642-9032-392AFFFCA553}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -818,62 +818,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -886,55 +886,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01F6414-AE8B-BB4B-9DEA-A02911A1B2BF}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
